--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3639.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3639.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.263335390147583</v>
+        <v>0.9927031993865967</v>
       </c>
       <c r="B1">
-        <v>1.665526346712864</v>
+        <v>1.610569953918457</v>
       </c>
       <c r="C1">
-        <v>1.850662413308916</v>
+        <v>2.739323854446411</v>
       </c>
       <c r="D1">
-        <v>2.080671097031062</v>
+        <v>1.537822604179382</v>
       </c>
       <c r="E1">
-        <v>2.493334366178727</v>
+        <v>0.8235983848571777</v>
       </c>
     </row>
   </sheetData>
